--- a/pre/OV.xlsx
+++ b/pre/OV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Heston\PreOrder Sheets\New Pre Order Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\Viking-master\Viking-master\pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4CFCA6-C2D1-488B-B342-2F110F5D1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465DAC8F-AA63-4F1C-B824-23E744F1F0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CB44574-8194-4363-8062-26925BA5CB64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CB44574-8194-4363-8062-26925BA5CB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -814,7 +814,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -822,8 +822,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -855,7 +854,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -884,7 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,1781 +1342,1542 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E21" sqref="E21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="112.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="112.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
       <c r="B3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27"/>
-      <c r="E8" s="10"/>
-      <c r="F8"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="26"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="15"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="33" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="24">
-        <v>44888</v>
-      </c>
-      <c r="F21" s="24">
-        <v>44895</v>
-      </c>
-      <c r="G21" s="24">
-        <v>44902</v>
-      </c>
-      <c r="H21" s="24">
-        <v>44909</v>
-      </c>
-      <c r="I21" s="24">
-        <v>44916</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="24">
-        <v>44909</v>
-      </c>
-      <c r="F22" s="24">
-        <v>44916</v>
-      </c>
-      <c r="G22" s="24">
-        <v>44923</v>
-      </c>
-      <c r="H22" s="24">
-        <v>44930</v>
-      </c>
-      <c r="I22" s="24">
-        <v>44937</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="20"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="5"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="5"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="5"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="5"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="12"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="5"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="5"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="5"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="12"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="11"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="12"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="11"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="11"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="12"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="11"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="12"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="11"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="12"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="34" t="s">
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="11"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="12"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="34" t="s">
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="11"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32" t="s">
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="12"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="34" t="s">
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="11"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="C83" s="11"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
+      <c r="D86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="12"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="34" t="s">
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="11"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
+      <c r="C90" s="11"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="12"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="34" t="s">
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="11"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
+      <c r="D98" s="17"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
+      <c r="D99" s="17"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="5"/>
-    </row>
-    <row r="103" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="12"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="35" t="s">
+      <c r="D104" s="17"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="11"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+    </row>
+    <row r="106" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
+      <c r="C106" s="11"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+    </row>
+    <row r="107" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
+      <c r="D107" s="17"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
+      <c r="D108" s="17"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
